--- a/ST - Steering System/Cost/Cost_steering.xlsx
+++ b/ST - Steering System/Cost/Cost_steering.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="320">
   <si>
     <t>University</t>
   </si>
@@ -1110,12 +1110,6 @@
     <t>Circular area diam. 50mm</t>
   </si>
   <si>
-    <t>Machining the form to insert colum</t>
-  </si>
-  <si>
-    <t>Material Steel</t>
-  </si>
-  <si>
     <t>Broach, external</t>
   </si>
   <si>
@@ -1171,6 +1165,15 @@
   </si>
   <si>
     <t>Aluminium Spacer</t>
+  </si>
+  <si>
+    <t>ST A0200</t>
+  </si>
+  <si>
+    <t>Steering Brackets tie</t>
+  </si>
+  <si>
+    <t>Steering Brackets</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1989,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -2495,6 +2498,9 @@
     <xf numFmtId="183" fontId="28" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="30" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="33" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="33" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2601,6 +2607,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>181880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381583</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11383280" y="1181100"/>
+          <a:ext cx="2577143" cy="2111219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3445,6 +3494,11 @@
       <sheetData sheetId="306"/>
       <sheetData sheetId="307"/>
       <sheetData sheetId="308">
+        <row r="1">
+          <cell r="N1">
+            <v>18.042335139662534</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="N2">
             <v>1</v>
@@ -3453,6 +3507,11 @@
       </sheetData>
       <sheetData sheetId="309"/>
       <sheetData sheetId="310">
+        <row r="1">
+          <cell r="N1">
+            <v>10.983132812500001</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="N2">
             <v>1</v>
@@ -3460,6 +3519,11 @@
         </row>
       </sheetData>
       <sheetData sheetId="311">
+        <row r="1">
+          <cell r="N1">
+            <v>5.18</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="N2">
             <v>1</v>
@@ -3467,6 +3531,11 @@
         </row>
       </sheetData>
       <sheetData sheetId="312">
+        <row r="1">
+          <cell r="N1">
+            <v>3.6220204999999996</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="N2">
             <v>2</v>
@@ -3479,6 +3548,11 @@
       <sheetData sheetId="316"/>
       <sheetData sheetId="317"/>
       <sheetData sheetId="318">
+        <row r="1">
+          <cell r="N1">
+            <v>5.4386336000000002</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="N2">
             <v>1</v>
@@ -4292,7 +4366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4391,7 +4465,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="195" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C5" s="169"/>
       <c r="D5" s="189" t="s">
@@ -4421,7 +4495,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="C6" s="169"/>
       <c r="D6" s="169"/>
@@ -5087,7 +5161,7 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8521,7 +8595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -13557,7 +13631,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13799,14 +13873,14 @@
       </c>
       <c r="C10" s="247">
         <f>ST_A0100!N5</f>
-        <v>57.628240417604957</v>
+        <v>51.838417155104956</v>
       </c>
       <c r="D10" s="30">
         <v>1</v>
       </c>
       <c r="E10" s="84">
         <f>C10*D10</f>
-        <v>57.628240417604957</v>
+        <v>51.838417155104956</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -13911,7 +13985,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="113" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C14" s="84">
         <f>ST_0500!N5</f>
@@ -14720,9 +14794,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O51"/>
+  <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14757,8 +14833,8 @@
         <v>2</v>
       </c>
       <c r="N2" s="213">
-        <f>E15+N21+I37+J45+I49</f>
-        <v>57.628240417604957</v>
+        <f>E17+N23+I39+J47+I51</f>
+        <v>51.838417155104956</v>
       </c>
       <c r="O2" s="169"/>
     </row>
@@ -14792,7 +14868,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="169" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C4" s="169"/>
       <c r="D4" s="169"/>
@@ -14834,7 +14910,7 @@
       </c>
       <c r="N5" s="213">
         <f>N2*N3</f>
-        <v>57.628240417604957</v>
+        <v>51.838417155104956</v>
       </c>
       <c r="O5" s="169"/>
     </row>
@@ -14971,7 +15047,7 @@
       </c>
       <c r="E11" s="281">
         <f>ST_01002!N5</f>
-        <v>10.983132812500001</v>
+        <v>5.1933095499999995</v>
       </c>
       <c r="F11" s="169"/>
       <c r="G11" s="169"/>
@@ -15018,7 +15094,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="171" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C13" s="216">
         <f>'[1]ST 02004'!N2</f>
@@ -15072,16 +15148,15 @@
       <c r="O14" s="169"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="176">
-        <f>SUM(E10:E14)</f>
-        <v>37.731225452162533</v>
-      </c>
+      <c r="A15" s="169">
+        <v>60</v>
+      </c>
+      <c r="B15" s="190" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="315"/>
+      <c r="D15" s="313"/>
+      <c r="E15" s="314"/>
       <c r="F15" s="169"/>
       <c r="G15" s="169"/>
       <c r="H15" s="169"/>
@@ -15094,11 +15169,15 @@
       <c r="O15" s="169"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
+      <c r="A16" s="169">
+        <v>70</v>
+      </c>
+      <c r="B16" s="190" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="315"/>
+      <c r="D16" s="313"/>
+      <c r="E16" s="314"/>
       <c r="F16" s="169"/>
       <c r="G16" s="169"/>
       <c r="H16" s="169"/>
@@ -15111,142 +15190,115 @@
       <c r="O16" s="169"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="168" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="176">
+        <f>SUM(E10:E14)</f>
+        <v>31.941402189662533</v>
+      </c>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="169"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="169"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B19" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="168" t="s">
+      <c r="C19" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D19" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="168" t="s">
+      <c r="E19" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="168" t="s">
+      <c r="F19" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="168" t="s">
+      <c r="G19" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="H19" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="168" t="s">
+      <c r="I19" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="168" t="s">
+      <c r="J19" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="168" t="s">
+      <c r="K19" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="168" t="s">
+      <c r="L19" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="168" t="s">
+      <c r="M19" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="168" t="s">
+      <c r="N19" s="168" t="s">
         <v>18</v>
-      </c>
-      <c r="O17" s="169"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="170">
-        <v>10</v>
-      </c>
-      <c r="B18" s="170" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="170" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="216">
-        <f>0.1*((E18^2*G18))^(0.5)</f>
-        <v>8.5732140997411239</v>
-      </c>
-      <c r="E18" s="170">
-        <v>35</v>
-      </c>
-      <c r="F18" s="170" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="170">
-        <v>6</v>
-      </c>
-      <c r="H18" s="177" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="179">
-        <v>1</v>
-      </c>
-      <c r="N18" s="205">
-        <f>IF(J18="",D18*M18,D18*J18*K18*L18*M18)</f>
-        <v>8.5732140997411239</v>
-      </c>
-      <c r="O18" s="169"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="170">
-        <v>20</v>
-      </c>
-      <c r="B19" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="173" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="216">
-        <v>10</v>
-      </c>
-      <c r="E19" s="170">
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="170" t="s">
-        <v>263</v>
-      </c>
-      <c r="G19" s="170"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="205">
-        <f>E19*D19</f>
-        <v>0.1</v>
       </c>
       <c r="O19" s="169"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="170">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B20" s="170" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C20" s="170" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D20" s="216">
-        <v>0.5</v>
+        <f>0.1*((E20^2*G20))^(0.5)</f>
+        <v>8.5732140997411239</v>
       </c>
       <c r="E20" s="170">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F20" s="170" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="170"/>
-      <c r="H20" s="177"/>
+        <v>31</v>
+      </c>
+      <c r="G20" s="170">
+        <v>6</v>
+      </c>
+      <c r="H20" s="177" t="s">
+        <v>31</v>
+      </c>
       <c r="I20" s="178"/>
       <c r="J20" s="179"/>
       <c r="K20" s="177"/>
@@ -15256,109 +15308,108 @@
       </c>
       <c r="N20" s="205">
         <f>IF(J20="",D20*M20,D20*J20*K20*L20*M20)</f>
+        <v>8.5732140997411239</v>
+      </c>
+      <c r="O20" s="169"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="170">
+        <v>20</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="173" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="216">
+        <v>10</v>
+      </c>
+      <c r="E21" s="170">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="170" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="170"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="205">
+        <f>E21*D21</f>
+        <v>0.1</v>
+      </c>
+      <c r="O21" s="169"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="170">
+        <v>30</v>
+      </c>
+      <c r="B22" s="170" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="170" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="216">
         <v>0.5</v>
       </c>
-      <c r="O20" s="169"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="176">
-        <f>SUM(N18:N20)</f>
-        <v>9.1732140997411236</v>
-      </c>
-      <c r="O21" s="182"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
+      <c r="E22" s="170">
+        <v>1</v>
+      </c>
+      <c r="F22" s="170" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="170"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="179">
+        <v>1</v>
+      </c>
+      <c r="N22" s="205">
+        <f>IF(J22="",D22*M22,D22*J22*K22*L22*M22)</f>
+        <v>0.5</v>
+      </c>
       <c r="O22" s="169"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="168" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="168" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="168" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="168" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="168" t="s">
-        <v>18</v>
-      </c>
+      <c r="A23" s="182"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
       <c r="J23" s="182"/>
       <c r="K23" s="182"/>
       <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
+      <c r="M23" s="175" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="176">
+        <f>SUM(N20:N22)</f>
+        <v>9.1732140997411236</v>
+      </c>
       <c r="O23" s="182"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="170">
-        <v>10</v>
-      </c>
-      <c r="B24" s="173" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="173" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="216">
-        <v>0.15</v>
-      </c>
-      <c r="E24" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="170">
-        <v>2</v>
-      </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="216">
-        <f>D24*F24</f>
-        <v>0.3</v>
-      </c>
+      <c r="A24" s="169"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
       <c r="J24" s="169"/>
       <c r="K24" s="169"/>
       <c r="L24" s="169"/>
@@ -15367,65 +15418,64 @@
       <c r="O24" s="169"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="170">
-        <v>20</v>
-      </c>
-      <c r="B25" s="173" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="173" t="s">
-        <v>262</v>
-      </c>
-      <c r="D25" s="216">
-        <v>5.25</v>
-      </c>
-      <c r="E25" s="170" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" s="170">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G25" s="170" t="s">
-        <v>268</v>
-      </c>
-      <c r="H25" s="170">
-        <v>2</v>
-      </c>
-      <c r="I25" s="216">
-        <f>D25*F25*H25</f>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
+      <c r="A25" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="168" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="170">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B26" s="173" t="s">
-        <v>269</v>
-      </c>
-      <c r="C26" s="282" t="s">
-        <v>270</v>
+        <v>170</v>
+      </c>
+      <c r="C26" s="173" t="s">
+        <v>266</v>
       </c>
       <c r="D26" s="216">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E26" s="170" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F26" s="170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="170"/>
       <c r="H26" s="170"/>
       <c r="I26" s="216">
-        <f t="shared" ref="I26:I36" si="0">D26*F26</f>
-        <v>0.13</v>
+        <f>D26*F26</f>
+        <v>0.3</v>
       </c>
       <c r="J26" s="169"/>
       <c r="K26" s="169"/>
@@ -15434,30 +15484,34 @@
       <c r="N26" s="169"/>
       <c r="O26" s="169"/>
     </row>
-    <row r="27" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="170">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B27" s="173" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27" s="282" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="C27" s="173" t="s">
+        <v>262</v>
       </c>
       <c r="D27" s="216">
-        <v>0.13</v>
+        <v>5.25</v>
       </c>
       <c r="E27" s="170" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="F27" s="170">
-        <v>1</v>
-      </c>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G27" s="170" t="s">
+        <v>268</v>
+      </c>
+      <c r="H27" s="170">
+        <v>2</v>
+      </c>
       <c r="I27" s="216">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
+        <f>D27*F27*H27</f>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="J27" s="169"/>
       <c r="K27" s="169"/>
@@ -15468,28 +15522,28 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="170">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B28" s="173" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" s="173" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="C28" s="282" t="s">
+        <v>270</v>
       </c>
       <c r="D28" s="216">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="E28" s="170" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="170"/>
       <c r="H28" s="170"/>
       <c r="I28" s="216">
-        <f t="shared" si="0"/>
-        <v>0.38</v>
+        <f t="shared" ref="I28:I38" si="0">D28*F28</f>
+        <v>0.13</v>
       </c>
       <c r="J28" s="169"/>
       <c r="K28" s="169"/>
@@ -15498,15 +15552,15 @@
       <c r="N28" s="169"/>
       <c r="O28" s="169"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="170">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B29" s="173" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="173" t="s">
-        <v>274</v>
+      <c r="C29" s="282" t="s">
+        <v>271</v>
       </c>
       <c r="D29" s="216">
         <v>0.13</v>
@@ -15515,13 +15569,13 @@
         <v>38</v>
       </c>
       <c r="F29" s="170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="170"/>
       <c r="H29" s="170"/>
       <c r="I29" s="216">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="J29" s="169"/>
       <c r="K29" s="169"/>
@@ -15532,28 +15586,28 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="170">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B30" s="173" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C30" s="173" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D30" s="216">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="E30" s="170" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="170"/>
       <c r="H30" s="170"/>
       <c r="I30" s="216">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.38</v>
       </c>
       <c r="J30" s="169"/>
       <c r="K30" s="169"/>
@@ -15564,28 +15618,28 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="170">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B31" s="173" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C31" s="173" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D31" s="216">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="E31" s="170" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="170"/>
       <c r="H31" s="170"/>
       <c r="I31" s="216">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="J31" s="169"/>
       <c r="K31" s="169"/>
@@ -15596,28 +15650,28 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="170">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B32" s="173" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C32" s="173" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D32" s="216">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="170" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32" s="170"/>
       <c r="H32" s="170"/>
       <c r="I32" s="216">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>2</v>
       </c>
       <c r="J32" s="169"/>
       <c r="K32" s="169"/>
@@ -15628,16 +15682,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="170">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B33" s="173" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C33" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D33" s="216">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E33" s="170" t="s">
         <v>38</v>
@@ -15649,7 +15703,7 @@
       <c r="H33" s="170"/>
       <c r="I33" s="216">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="169"/>
       <c r="K33" s="169"/>
@@ -15660,28 +15714,28 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="170">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B34" s="173" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C34" s="173" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D34" s="216">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="E34" s="170" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="170"/>
       <c r="H34" s="170"/>
       <c r="I34" s="216">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="J34" s="169"/>
       <c r="K34" s="169"/>
@@ -15692,13 +15746,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="170">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B35" s="173" t="s">
         <v>275</v>
       </c>
       <c r="C35" s="173" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D35" s="216">
         <v>0.5</v>
@@ -15707,13 +15761,13 @@
         <v>38</v>
       </c>
       <c r="F35" s="170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="170"/>
       <c r="H35" s="170"/>
       <c r="I35" s="216">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="169"/>
       <c r="K35" s="169"/>
@@ -15724,7 +15778,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="170">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B36" s="173" t="s">
         <v>277</v>
@@ -15739,13 +15793,13 @@
         <v>38</v>
       </c>
       <c r="F36" s="170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="170"/>
       <c r="H36" s="170"/>
       <c r="I36" s="216">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J36" s="169"/>
       <c r="K36" s="169"/>
@@ -15755,37 +15809,62 @@
       <c r="O36" s="169"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="186">
-        <f>SUM(I24:I36)</f>
-        <v>8.8825000000000003</v>
-      </c>
-      <c r="J37" s="182"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="182"/>
-      <c r="O37" s="182"/>
+      <c r="A37" s="170">
+        <v>120</v>
+      </c>
+      <c r="B37" s="173" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="173" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="216">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="170">
+        <v>2</v>
+      </c>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="216">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="169"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="169"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
+      <c r="A38" s="170">
+        <v>130</v>
+      </c>
+      <c r="B38" s="173" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="173" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="216">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="170">
+        <v>2</v>
+      </c>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="216">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="J38" s="169"/>
       <c r="K38" s="169"/>
       <c r="L38" s="169"/>
@@ -15794,36 +15873,21 @@
       <c r="O38" s="169"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="168" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="168" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="168" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="168" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="168" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="168" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="168" t="s">
+      <c r="A39" s="182"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="175" t="s">
         <v>18</v>
       </c>
+      <c r="I39" s="186">
+        <f>SUM(I26:I38)</f>
+        <v>8.8825000000000003</v>
+      </c>
+      <c r="J39" s="182"/>
       <c r="K39" s="182"/>
       <c r="L39" s="182"/>
       <c r="M39" s="182"/>
@@ -15831,34 +15895,16 @@
       <c r="O39" s="182"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="170">
-        <v>10</v>
-      </c>
-      <c r="B40" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="170" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="216">
-        <f>0.00018*(E40^2)+0.013</f>
-        <v>0.23350000000000001</v>
-      </c>
-      <c r="E40" s="170">
-        <v>35</v>
-      </c>
-      <c r="F40" s="170" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="170"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="283">
-        <v>1</v>
-      </c>
-      <c r="J40" s="216">
-        <f>D40*I40</f>
-        <v>0.23350000000000001</v>
-      </c>
+      <c r="A40" s="169"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="169"/>
       <c r="K40" s="169"/>
       <c r="L40" s="169"/>
       <c r="M40" s="169"/>
@@ -15866,72 +15912,70 @@
       <c r="O40" s="169"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="170">
-        <v>20</v>
-      </c>
-      <c r="B41" s="170" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="170" t="s">
-        <v>286</v>
-      </c>
-      <c r="D41" s="216">
-        <f>0.8/105154*E41^2*G41*SQRT(G41)+(0.003*EXP(0.319*E41))</f>
-        <v>9.9361345914868976E-2</v>
-      </c>
-      <c r="E41" s="170">
-        <v>8</v>
-      </c>
-      <c r="F41" s="284" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="170">
+      <c r="A41" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="168" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="168" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="173" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="283">
-        <v>6</v>
-      </c>
-      <c r="J41" s="216">
-        <f>D41*I41</f>
-        <v>0.5961680754892138</v>
-      </c>
-      <c r="K41" s="169"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="169"/>
-      <c r="O41" s="169"/>
+      <c r="H41" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="182"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="170">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B42" s="170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="170" t="s">
-        <v>287</v>
-      </c>
-      <c r="D42" s="285">
-        <f t="array" ref="D42">(0.009*EXP(0.2*E42))</f>
-        <v>4.4577291819556032E-2</v>
+        <v>284</v>
+      </c>
+      <c r="D42" s="216">
+        <f>0.00018*(E42^2)+0.013</f>
+        <v>0.23350000000000001</v>
       </c>
       <c r="E42" s="170">
-        <v>8</v>
-      </c>
-      <c r="F42" s="284" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="170" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="170"/>
       <c r="H42" s="173"/>
       <c r="I42" s="283">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42" s="216">
         <f>D42*I42</f>
-        <v>0.17830916727822413</v>
+        <v>0.23350000000000001</v>
       </c>
       <c r="K42" s="169"/>
       <c r="L42" s="169"/>
@@ -15941,59 +15985,59 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="170">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B43" s="170" t="s">
         <v>285</v>
       </c>
       <c r="C43" s="170" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D43" s="216">
         <f>0.8/105154*E43^2*G43*SQRT(G43)+(0.003*EXP(0.319*E43))</f>
-        <v>2.1634370710367147E-2</v>
+        <v>9.9361345914868976E-2</v>
       </c>
       <c r="E43" s="170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F43" s="284" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="170">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H43" s="173" t="s">
         <v>31</v>
       </c>
       <c r="I43" s="283">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J43" s="216">
         <f>D43*I43</f>
-        <v>8.6537482841468588E-2</v>
-      </c>
-      <c r="K43" s="182"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="182"/>
-      <c r="O43" s="182"/>
+        <v>0.5961680754892138</v>
+      </c>
+      <c r="K43" s="169"/>
+      <c r="L43" s="169"/>
+      <c r="M43" s="169"/>
+      <c r="N43" s="169"/>
+      <c r="O43" s="169"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="170">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B44" s="170" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="170" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D44" s="285">
         <f t="array" ref="D44">(0.009*EXP(0.2*E44))</f>
-        <v>2.0029868356432209E-2</v>
+        <v>4.4577291819556032E-2</v>
       </c>
       <c r="E44" s="170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F44" s="284" t="s">
         <v>31</v>
@@ -16005,7 +16049,7 @@
       </c>
       <c r="J44" s="216">
         <f>D44*I44</f>
-        <v>8.0119473425728838E-2</v>
+        <v>0.17830916727822413</v>
       </c>
       <c r="K44" s="169"/>
       <c r="L44" s="169"/>
@@ -16014,20 +16058,37 @@
       <c r="O44" s="169"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="182"/>
-      <c r="B45" s="182"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="182"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="186">
-        <f>SUM(J40:J44)</f>
-        <v>1.1746341990346356</v>
+      <c r="A45" s="170">
+        <v>40</v>
+      </c>
+      <c r="B45" s="170" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="170" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="216">
+        <f>0.8/105154*E45^2*G45*SQRT(G45)+(0.003*EXP(0.319*E45))</f>
+        <v>2.1634370710367147E-2</v>
+      </c>
+      <c r="E45" s="170">
+        <v>4</v>
+      </c>
+      <c r="F45" s="284" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="170">
+        <v>20</v>
+      </c>
+      <c r="H45" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="283">
+        <v>4</v>
+      </c>
+      <c r="J45" s="216">
+        <f>D45*I45</f>
+        <v>8.6537482841468588E-2</v>
       </c>
       <c r="K45" s="182"/>
       <c r="L45" s="182"/>
@@ -16036,16 +16097,34 @@
       <c r="O45" s="182"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="169"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="188"/>
-      <c r="J46" s="169"/>
+      <c r="A46" s="170">
+        <v>50</v>
+      </c>
+      <c r="B46" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="170" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="285">
+        <f t="array" ref="D46">(0.009*EXP(0.2*E46))</f>
+        <v>2.0029868356432209E-2</v>
+      </c>
+      <c r="E46" s="170">
+        <v>4</v>
+      </c>
+      <c r="F46" s="284" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="170"/>
+      <c r="H46" s="173"/>
+      <c r="I46" s="283">
+        <v>4</v>
+      </c>
+      <c r="J46" s="216">
+        <f>D46*I46</f>
+        <v>8.0119473425728838E-2</v>
+      </c>
       <c r="K46" s="169"/>
       <c r="L46" s="169"/>
       <c r="M46" s="169"/>
@@ -16053,34 +16132,21 @@
       <c r="O46" s="169"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="168" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="168" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="168" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="168" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="168" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="168" t="s">
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
+      <c r="I47" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="182"/>
+      <c r="J47" s="186">
+        <f>SUM(J42:J46)</f>
+        <v>1.1746341990346356</v>
+      </c>
       <c r="K47" s="182"/>
       <c r="L47" s="182"/>
       <c r="M47" s="182"/>
@@ -16088,34 +16154,15 @@
       <c r="O47" s="182"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="170">
-        <v>10</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="170" t="s">
-        <v>257</v>
-      </c>
-      <c r="D48" s="216">
-        <v>500</v>
-      </c>
-      <c r="E48" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="170">
-        <v>4</v>
-      </c>
-      <c r="G48" s="170">
-        <v>3000</v>
-      </c>
-      <c r="H48" s="170">
-        <v>1</v>
-      </c>
-      <c r="I48" s="205">
-        <f>D48*F48/G48*H48</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A48" s="169"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="188"/>
       <c r="J48" s="169"/>
       <c r="K48" s="169"/>
       <c r="L48" s="169"/>
@@ -16124,37 +16171,69 @@
       <c r="O48" s="169"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
-      <c r="B49" s="182"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="182"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="175" t="s">
+      <c r="A49" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="168" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="186">
-        <f>SUM(I48:I48)</f>
+      <c r="J49" s="182"/>
+      <c r="K49" s="182"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="182"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="170">
+        <v>10</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="170" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="216">
+        <v>500</v>
+      </c>
+      <c r="E50" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="170">
+        <v>4</v>
+      </c>
+      <c r="G50" s="170">
+        <v>3000</v>
+      </c>
+      <c r="H50" s="170">
+        <v>1</v>
+      </c>
+      <c r="I50" s="205">
+        <f>D50*F50/G50*H50</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J49" s="182"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="169"/>
-      <c r="M49" s="169"/>
-      <c r="N49" s="169"/>
-      <c r="O49" s="169"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="169"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
       <c r="J50" s="169"/>
       <c r="K50" s="169"/>
       <c r="L50" s="169"/>
@@ -16163,21 +16242,60 @@
       <c r="O50" s="169"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="169"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="169"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="169"/>
-      <c r="J51" s="169"/>
+      <c r="A51" s="182"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="182"/>
+      <c r="H51" s="175" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="186">
+        <f>SUM(I50:I50)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J51" s="182"/>
       <c r="K51" s="169"/>
       <c r="L51" s="169"/>
       <c r="M51" s="169"/>
       <c r="N51" s="169"/>
       <c r="O51" s="169"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="169"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="169"/>
+      <c r="M52" s="169"/>
+      <c r="N52" s="169"/>
+      <c r="O52" s="169"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="169"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="169"/>
+      <c r="K53" s="169"/>
+      <c r="L53" s="169"/>
+      <c r="M53" s="169"/>
+      <c r="N53" s="169"/>
+      <c r="O53" s="169"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16197,7 +16315,7 @@
   <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16820,11 +16938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -16855,7 +16976,7 @@
       </c>
       <c r="N2" s="289">
         <f>N12+I19</f>
-        <v>10.983132812500001</v>
+        <v>5.1933095499999995</v>
       </c>
       <c r="O2" s="169"/>
     </row>
@@ -16891,7 +17012,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="190" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C4" s="287"/>
       <c r="D4" s="290" t="s">
@@ -16937,7 +17058,7 @@
       </c>
       <c r="N5" s="289">
         <f>N2*N3</f>
-        <v>10.983132812500001</v>
+        <v>5.1933095499999995</v>
       </c>
       <c r="O5" s="169"/>
     </row>
@@ -16946,7 +17067,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="293" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C6" s="287"/>
       <c r="D6" s="287"/>
@@ -17083,7 +17204,7 @@
       </c>
       <c r="E11" s="201">
         <f>J11*K11*L11</f>
-        <v>0.77028125000000014</v>
+        <v>1.7303598</v>
       </c>
       <c r="F11" s="198" t="s">
         <v>179</v>
@@ -17094,11 +17215,11 @@
         <v>297</v>
       </c>
       <c r="J11" s="215">
-        <f>3.14*0.025^2</f>
-        <v>1.9625000000000003E-3</v>
+        <f>3.14*0.03^2</f>
+        <v>2.826E-3</v>
       </c>
       <c r="K11" s="177">
-        <v>0.05</v>
+        <v>7.8E-2</v>
       </c>
       <c r="L11" s="180">
         <v>7850</v>
@@ -17108,7 +17229,7 @@
       </c>
       <c r="N11" s="205">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
-        <v>1.7331328125000003</v>
+        <v>3.8933095499999997</v>
       </c>
       <c r="O11" s="169"/>
     </row>
@@ -17130,7 +17251,7 @@
       </c>
       <c r="N12" s="306">
         <f>SUM(N11:N11)</f>
-        <v>1.7331328125000003</v>
+        <v>3.8933095499999997</v>
       </c>
       <c r="O12" s="182"/>
     </row>
@@ -17193,7 +17314,7 @@
       <c r="B15" s="209" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="210" t="s">
+      <c r="C15" s="260" t="s">
         <v>292</v>
       </c>
       <c r="D15" s="172">
@@ -17218,35 +17339,16 @@
       <c r="N15" s="287"/>
       <c r="O15" s="169"/>
     </row>
-    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="198">
-        <v>20</v>
-      </c>
-      <c r="B16" s="198" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="217" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="172">
-        <v>0.04</v>
-      </c>
-      <c r="E16" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="219">
-        <v>50</v>
-      </c>
-      <c r="G16" s="208" t="s">
-        <v>299</v>
-      </c>
-      <c r="H16" s="208">
-        <v>3</v>
-      </c>
-      <c r="I16" s="211">
-        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
-        <v>6</v>
-      </c>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="198"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="211"/>
       <c r="J16" s="287"/>
       <c r="K16" s="287"/>
       <c r="L16" s="287"/>
@@ -17255,30 +17357,15 @@
       <c r="O16" s="169"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="198">
-        <v>30</v>
-      </c>
-      <c r="B17" s="198" t="s">
-        <v>300</v>
-      </c>
-      <c r="C17" s="198" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="172">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="198" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="309">
-        <v>2.5</v>
-      </c>
+      <c r="A17" s="198"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="309"/>
       <c r="G17" s="220"/>
       <c r="H17" s="208"/>
-      <c r="I17" s="211">
-        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
-        <v>1.25</v>
-      </c>
+      <c r="I17" s="211"/>
       <c r="J17" s="287"/>
       <c r="K17" s="287"/>
       <c r="L17" s="287"/>
@@ -17287,32 +17374,15 @@
       <c r="O17" s="169"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="296">
-        <v>40</v>
-      </c>
-      <c r="B18" s="209" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="208" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="172">
-        <v>0.35</v>
-      </c>
-      <c r="E18" s="209" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="208">
-        <v>2</v>
-      </c>
+      <c r="A18" s="296"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="208"/>
       <c r="G18" s="208"/>
-      <c r="H18" s="208">
-        <v>1</v>
-      </c>
-      <c r="I18" s="298">
-        <f>H18*F18*D18</f>
-        <v>0.7</v>
-      </c>
+      <c r="H18" s="208"/>
+      <c r="I18" s="298"/>
       <c r="J18" s="287"/>
       <c r="K18" s="287"/>
       <c r="L18" s="287"/>
@@ -17333,7 +17403,7 @@
       </c>
       <c r="I19" s="307">
         <f>SUM(I15:I18)</f>
-        <v>9.25</v>
+        <v>1.3</v>
       </c>
       <c r="J19" s="304"/>
       <c r="K19" s="304"/>
@@ -17450,6 +17520,7 @@
     <hyperlink ref="B4" location="ST_A0100!A1" display="Steering Rack "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17578,7 +17649,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="293" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C6" s="287"/>
       <c r="D6" s="287"/>
@@ -17703,7 +17774,7 @@
         <v>197</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D11" s="172">
         <v>4.2</v>
@@ -17804,10 +17875,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="198" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C15" s="198" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D15" s="172">
         <v>4</v>
@@ -17867,7 +17938,7 @@
         <v>182</v>
       </c>
       <c r="C17" s="198" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D17" s="172">
         <v>0.04</v>
@@ -17897,10 +17968,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="198" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C18" s="198" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D18" s="172">
         <v>0.35</v>
@@ -17958,7 +18029,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18051,7 +18122,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="169" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" s="287"/>
       <c r="D5" s="290" t="s">
@@ -18080,7 +18151,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="293" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C6" s="287"/>
       <c r="D6" s="287"/>
@@ -18220,7 +18291,7 @@
       <c r="G11" s="297"/>
       <c r="H11" s="300"/>
       <c r="I11" s="301" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J11" s="301">
         <f>20*102*0.000001</f>
@@ -18331,7 +18402,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="297" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H15" s="297">
         <f>1/2</f>
@@ -18352,10 +18423,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="198" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C16" s="198" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D16" s="172">
         <v>0.01</v>
@@ -18386,16 +18457,16 @@
         <v>30</v>
       </c>
       <c r="B17" s="209" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C17" s="170" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D17" s="236">
         <v>0.25</v>
       </c>
       <c r="E17" s="221" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F17" s="297">
         <v>2</v>
@@ -18514,7 +18585,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
